--- a/APS/동물연금술사 데이터.xlsx
+++ b/APS/동물연금술사 데이터.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Coding\APS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projects\APS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E75F3A-E346-446E-953B-133D637644CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6EAFD-50CE-4CC7-B0A4-98C7D9132F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="450" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재료 목록" sheetId="2" r:id="rId1"/>
     <sheet name="포션 목록" sheetId="1" r:id="rId2"/>
-    <sheet name="캐릭터" sheetId="3" r:id="rId3"/>
+    <sheet name="영웅캐릭터목록" sheetId="3" r:id="rId3"/>
+    <sheet name="캐릭터 공통 속성" sheetId="4" r:id="rId4"/>
+    <sheet name="이벤트" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>potion_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +80,54 @@
   </si>
   <si>
     <t>regend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>induration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regeneration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff_ContinuousDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff_CrowdControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antidotes_Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg_per_second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +150,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,18 +183,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,44 +505,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -467,10 +733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E535CD2-4528-4DDF-AB43-35116363902D}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="Q5:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,53 +744,242 @@
     <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="8" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="R8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="S8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="T8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="U8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190AC69-A0DA-4191-820F-A2CBBE099330}">
+  <dimension ref="B3:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF054DC-F026-4BC2-8B64-25DFAFA0284A}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>